--- a/venv/leetcodeByTopics.xlsx
+++ b/venv/leetcodeByTopics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omerorhan/Desktop/UCSC/resume/leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omerorhan/Desktop/UCSC/resume/leetcode/leetcode/venv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BEC154-262F-844B-9A08-79A60D9A2F9F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6758B759-D91D-2142-9724-8F4308B3CED4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" firstSheet="26" activeTab="36" xr2:uid="{A5CFC853-5B23-3C47-89F4-03C9909BD6CA}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{A5CFC853-5B23-3C47-89F4-03C9909BD6CA}"/>
   </bookViews>
   <sheets>
     <sheet name="HashTable" sheetId="7" r:id="rId1"/>
@@ -52,7 +52,6 @@
     <sheet name="Memoization" sheetId="38" r:id="rId37"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3331,7 +3330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F6CBE7-C059-A645-BB7C-252B14790FB5}">
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -18823,8 +18822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243684E6-970B-B548-ABA9-7BB73446DA76}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18873,7 +18872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A2E204-B3E0-E342-A315-AC4AC1220A47}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -21437,7 +21436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF34D6F-D3A5-424B-B2AA-E7F07A9441FE}">
   <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A159" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -24143,7 +24142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DEBAB4-42F9-7B42-86FD-02D7FF0B641E}">
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -26180,10 +26179,14 @@
   <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
